--- a/Codebook_maternal_mental_health_infant_sleep.xlsx
+++ b/Codebook_maternal_mental_health_infant_sleep.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dashi\PycharmProjects\maternal_health_on_infant_sleep\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2401A4F5-673A-43A2-90A8-0B2D6EFEC56C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5145963E-C988-4228-816D-AA10C3C748F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2040" yWindow="1608" windowWidth="18540" windowHeight="11148" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1166,8 +1166,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C72" sqref="C72"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Codebook_maternal_mental_health_infant_sleep.xlsx
+++ b/Codebook_maternal_mental_health_infant_sleep.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dashi\PycharmProjects\maternal_health_on_infant_sleep\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5145963E-C988-4228-816D-AA10C3C748F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D1252A2-FA22-419A-90E8-3DAF20263394}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2040" yWindow="1608" windowWidth="18540" windowHeight="11148" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -796,11 +796,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -991,7 +998,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1020,39 +1027,42 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1167,7 +1177,7 @@
   <dimension ref="A1:D65"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C63" sqref="C63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1361,7 +1371,7 @@
       <c r="A14" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="23" t="s">
+      <c r="B14" s="24" t="s">
         <v>226</v>
       </c>
       <c r="C14" s="8" t="s">
